--- a/ONCHO/Impact Assessments/Liberia/lr_oncho_ias_3_diag_202112.xlsx
+++ b/ONCHO/Impact Assessments/Liberia/lr_oncho_ias_3_diag_202112.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -81,19 +81,19 @@
     <t>d_cluster_id1</t>
   </si>
   <si>
-    <t>Enter the Community ID</t>
-  </si>
-  <si>
-    <t>. &gt; 99 and .&lt; 1000</t>
-  </si>
-  <si>
-    <t>Must be between 100 and 999 included</t>
+    <t>Enter the site ID</t>
+  </si>
+  <si>
+    <t>regex(., '^[0-9]{3}$')</t>
+  </si>
+  <si>
+    <t>The code must be three digits</t>
   </si>
   <si>
     <t>d_cluster_id2</t>
   </si>
   <si>
-    <t>Reapeat the Community ID</t>
+    <t>Reapeat the site ID</t>
   </si>
   <si>
     <t>. = ${d_cluster_id1}</t>
@@ -258,10 +258,10 @@
     <t>allow_choice_duplicates</t>
   </si>
   <si>
-    <t>(Dec 2021) IAS - 3. Diagnostic Form</t>
-  </si>
-  <si>
-    <t>lr_oncho_ias_3_diag_202112</t>
+    <t>(Dec 2021) IAS - 3. Diagnostic Form V2</t>
+  </si>
+  <si>
+    <t>lr_oncho_ias_3_diag_202112_v2</t>
   </si>
   <si>
     <t>English</t>
@@ -273,9 +273,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -302,6 +302,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -310,31 +348,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,14 +438,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -365,88 +447,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -474,181 +474,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,10 +724,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -782,6 +780,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -795,160 +804,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1312,12 +1312,12 @@
   <sheetPr/>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1407,7 +1407,7 @@
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
     </row>
-    <row r="3" s="3" customFormat="1" ht="28.5" spans="1:12">
+    <row r="3" s="3" customFormat="1" spans="1:12">
       <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
@@ -1906,8 +1906,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>

--- a/ONCHO/Impact Assessments/Liberia/lr_oncho_ias_3_diag_202112.xlsx
+++ b/ONCHO/Impact Assessments/Liberia/lr_oncho_ias_3_diag_202112.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -78,6 +78,9 @@
     <t>yes</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>d_cluster_id1</t>
   </si>
   <si>
@@ -109,9 +112,6 @@
   </si>
   <si>
     <t>Is this a second test?</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
   <si>
     <t>d_lot_number</t>
@@ -1312,12 +1312,12 @@
   <sheetPr/>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1409,21 +1409,21 @@
     </row>
     <row r="3" s="3" customFormat="1" spans="1:12">
       <c r="A3" s="15" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
       <c r="F3" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
@@ -1438,18 +1438,18 @@
         <v>13</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14" t="s">
@@ -1461,13 +1461,13 @@
     </row>
     <row r="5" s="3" customFormat="1" spans="1:13">
       <c r="A5" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="16"/>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="6" s="3" customFormat="1" spans="1:13">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>32</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="9" s="3" customFormat="1" ht="28.5" spans="1:13">
       <c r="A9" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="10" s="3" customFormat="1" ht="28.5" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>46</v>
@@ -1596,7 +1596,7 @@
         <v>48</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="14" t="s">
@@ -1623,7 +1623,7 @@
     </row>
     <row r="12" s="3" customFormat="1" spans="1:10">
       <c r="A12" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>52</v>
@@ -1906,7 +1906,7 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/ONCHO/Impact Assessments/Liberia/lr_oncho_ias_3_diag_202112.xlsx
+++ b/ONCHO/Impact Assessments/Liberia/lr_oncho_ias_3_diag_202112.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
   <si>
     <t>type</t>
   </si>
@@ -204,9 +204,6 @@
     <t>list_name</t>
   </si>
   <si>
-    <t>label</t>
-  </si>
-  <si>
     <t>county</t>
   </si>
   <si>
@@ -258,7 +255,7 @@
     <t>allow_choice_duplicates</t>
   </si>
   <si>
-    <t>(Dec 2021) IAS - 3. Diagnostic Form V2</t>
+    <t>(July 2022) IAS - 3. Diagnostic Form V2</t>
   </si>
   <si>
     <t>lr_oncho_ias_3_diag_202112_v2</t>
@@ -272,10 +269,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -309,6 +306,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -317,6 +321,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -325,6 +337,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -334,7 +353,67 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,82 +428,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,13 +449,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -468,19 +465,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,7 +525,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,25 +561,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,13 +609,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,78 +627,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -636,19 +645,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,6 +728,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -742,6 +748,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,26 +782,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,160 +801,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1312,7 +1309,7 @@
   <sheetPr/>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -1768,10 +1765,10 @@
   <sheetPr/>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1791,40 +1788,40 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" spans="1:5">
       <c r="A2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="C2" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="12"/>
     </row>
     <row r="3" s="4" customFormat="1" spans="1:5">
       <c r="A3" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="12"/>
@@ -1838,61 +1835,61 @@
     </row>
     <row r="5" s="4" customFormat="1" spans="1:5">
       <c r="A5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>70</v>
-      </c>
       <c r="C5" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="12"/>
     </row>
     <row r="6" s="4" customFormat="1" spans="1:5">
       <c r="A6" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="12"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
         <v>72</v>
       </c>
-      <c r="B8" t="s">
-        <v>73</v>
-      </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1907,7 +1904,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1919,27 +1916,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
         <v>80</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>81</v>
-      </c>
-      <c r="C2" t="s">
-        <v>82</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>

--- a/ONCHO/Impact Assessments/Liberia/lr_oncho_ias_3_diag_202112.xlsx
+++ b/ONCHO/Impact Assessments/Liberia/lr_oncho_ias_3_diag_202112.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="100">
   <si>
     <t>type</t>
   </si>
@@ -57,42 +57,39 @@
     <t>choice_filter</t>
   </si>
   <si>
+    <t>select_one recorder_id</t>
+  </si>
+  <si>
+    <t>d_recorder_id</t>
+  </si>
+  <si>
+    <t>Recorder ID</t>
+  </si>
+  <si>
+    <t>2-digit code provided to each recorder (person doing the data entry)</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>d_cluster_id1</t>
+  </si>
+  <si>
+    <t>Enter the site ID</t>
+  </si>
+  <si>
+    <t>regex(., '^[0-9]{3}$')</t>
+  </si>
+  <si>
+    <t>The code must be three digits</t>
+  </si>
+  <si>
     <t>integer</t>
   </si>
   <si>
-    <t>d_recorder_id</t>
-  </si>
-  <si>
-    <t>Recorder ID</t>
-  </si>
-  <si>
-    <t>2-digit code provided to each recorder (person doing the data entry)</t>
-  </si>
-  <si>
-    <t>. &gt; 9 and .&lt; 100</t>
-  </si>
-  <si>
-    <t>Must be between 10 and 99 included</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>d_cluster_id1</t>
-  </si>
-  <si>
-    <t>Enter the site ID</t>
-  </si>
-  <si>
-    <t>regex(., '^[0-9]{3}$')</t>
-  </si>
-  <si>
-    <t>The code must be three digits</t>
-  </si>
-  <si>
     <t>d_cluster_id2</t>
   </si>
   <si>
@@ -213,6 +210,63 @@
     <t>community</t>
   </si>
   <si>
+    <t>recorder_id</t>
+  </si>
+  <si>
+    <t>Alexlyn Monluo (61)</t>
+  </si>
+  <si>
+    <t>Jallah Gobeh (62)</t>
+  </si>
+  <si>
+    <t>Vivian Doedeh (63)</t>
+  </si>
+  <si>
+    <t>Emmanuel Pelham (64)</t>
+  </si>
+  <si>
+    <t>Larry Gee (65)</t>
+  </si>
+  <si>
+    <t>Habakkuk Garphen (66)</t>
+  </si>
+  <si>
+    <t>Youngor Kollie (67)</t>
+  </si>
+  <si>
+    <t>Life Kolako (68)</t>
+  </si>
+  <si>
+    <t>Anthony Bettee (69)</t>
+  </si>
+  <si>
+    <t>James Yanquoi (70)</t>
+  </si>
+  <si>
+    <t>Isaac Gbewo (71)</t>
+  </si>
+  <si>
+    <t>Alice T. Korleh (72)</t>
+  </si>
+  <si>
+    <t>Tarlo Bakai (73)</t>
+  </si>
+  <si>
+    <t>Sonnie Ziama Gbewo (83)</t>
+  </si>
+  <si>
+    <t>Karsor Kollie (84)</t>
+  </si>
+  <si>
+    <t>Partrick Ndongmo (85)</t>
+  </si>
+  <si>
+    <t>Anthony Tamba (86)</t>
+  </si>
+  <si>
+    <t>Gar Gargannah (87)</t>
+  </si>
+  <si>
     <t>yes_no</t>
   </si>
   <si>
@@ -255,10 +309,10 @@
     <t>allow_choice_duplicates</t>
   </si>
   <si>
-    <t>(July 2022) IAS - 3. Diagnostic Form V2</t>
-  </si>
-  <si>
-    <t>lr_oncho_ias_3_diag_202112_v2</t>
+    <t>(July 2022) IAS - 3. Diagnostic Form V2.1</t>
+  </si>
+  <si>
+    <t>lr_oncho_ias_3_diag_202112_v2_1</t>
   </si>
   <si>
     <t>English</t>
@@ -269,10 +323,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -313,77 +367,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,17 +383,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -416,6 +394,45 @@
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -428,7 +445,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,9 +497,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,13 +519,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,169 +675,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,39 +758,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -752,16 +773,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -778,6 +808,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,152 +858,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -966,6 +1020,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1309,12 +1367,12 @@
   <sheetPr/>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1335,43 +1393,43 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="18" spans="1:13">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="19" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1379,379 +1437,378 @@
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:12">
+      <c r="A3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14" t="s">
+      <c r="B3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:12">
-      <c r="A3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="G3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="28.5" spans="1:13">
       <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16" t="s">
+      <c r="G4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:13">
       <c r="A5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="C5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:13">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:13">
       <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
         <v>34</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="28.5" spans="1:13">
       <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" s="3" customFormat="1" ht="28.5" spans="1:13">
       <c r="A9" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="16" t="s">
+      <c r="G9" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="H9" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
     </row>
     <row r="10" s="3" customFormat="1" ht="28.5" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
+      <c r="G10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
     </row>
     <row r="11" s="3" customFormat="1" spans="1:10">
       <c r="A11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>51</v>
-      </c>
       <c r="D11"/>
-      <c r="J11" s="14" t="s">
-        <v>19</v>
+      <c r="J11" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" spans="1:10">
       <c r="A12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>53</v>
-      </c>
       <c r="D12"/>
-      <c r="J12" s="14" t="s">
-        <v>19</v>
+      <c r="J12" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" s="3" customFormat="1" spans="1:10">
       <c r="A13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
         <v>54</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>56</v>
-      </c>
       <c r="D13"/>
-      <c r="J13" s="14"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:10">
       <c r="A14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="16"/>
       <c r="D14"/>
-      <c r="J14" s="14"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" s="3" customFormat="1" spans="1:10">
       <c r="A15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="16"/>
       <c r="D15"/>
-      <c r="J15" s="14"/>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" s="3" customFormat="1" spans="1:10">
       <c r="A16"/>
       <c r="B16"/>
-      <c r="C16" s="14"/>
+      <c r="C16" s="16"/>
       <c r="D16"/>
-      <c r="J16" s="14"/>
+      <c r="J16" s="16"/>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:10">
       <c r="A17"/>
       <c r="B17"/>
-      <c r="C17" s="14"/>
+      <c r="C17" s="16"/>
       <c r="D17"/>
-      <c r="J17" s="14"/>
+      <c r="J17" s="16"/>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:10">
       <c r="A18"/>
       <c r="B18"/>
-      <c r="C18" s="14"/>
+      <c r="C18" s="16"/>
       <c r="D18"/>
-      <c r="J18" s="14"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:10">
       <c r="A19"/>
       <c r="B19"/>
-      <c r="C19" s="14"/>
+      <c r="C19" s="16"/>
       <c r="D19"/>
-      <c r="J19" s="14"/>
+      <c r="J19" s="16"/>
     </row>
     <row r="20" s="3" customFormat="1" spans="1:10">
       <c r="A20"/>
       <c r="B20"/>
-      <c r="C20" s="14"/>
+      <c r="C20" s="16"/>
       <c r="D20"/>
-      <c r="J20" s="14"/>
+      <c r="J20" s="16"/>
     </row>
     <row r="21" s="3" customFormat="1" spans="1:10">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21" s="14"/>
+      <c r="C21" s="16"/>
       <c r="D21"/>
-      <c r="J21" s="14"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" s="3" customFormat="1" spans="1:10">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22" s="14"/>
+      <c r="C22" s="16"/>
       <c r="D22"/>
-      <c r="J22" s="14"/>
+      <c r="J22" s="16"/>
     </row>
     <row r="23" s="3" customFormat="1" spans="1:10">
       <c r="A23"/>
       <c r="B23"/>
-      <c r="C23" s="14"/>
+      <c r="C23" s="16"/>
       <c r="D23"/>
-      <c r="J23" s="14"/>
+      <c r="J23" s="16"/>
     </row>
     <row r="24" s="3" customFormat="1" spans="1:10">
       <c r="A24"/>
       <c r="B24"/>
-      <c r="C24" s="14"/>
+      <c r="C24" s="16"/>
       <c r="D24"/>
-      <c r="J24" s="14"/>
+      <c r="J24" s="16"/>
     </row>
     <row r="25" s="3" customFormat="1" spans="1:10">
       <c r="A25"/>
       <c r="B25"/>
-      <c r="C25" s="14"/>
+      <c r="C25" s="16"/>
       <c r="D25"/>
-      <c r="J25" s="14"/>
+      <c r="J25" s="16"/>
     </row>
     <row r="26" s="3" customFormat="1" spans="1:10">
       <c r="A26"/>
       <c r="B26"/>
-      <c r="C26" s="14"/>
+      <c r="C26" s="16"/>
       <c r="D26"/>
-      <c r="J26" s="14"/>
+      <c r="J26" s="16"/>
     </row>
     <row r="27" s="3" customFormat="1" spans="1:10">
       <c r="A27"/>
       <c r="B27"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="H27" s="16"/>
-      <c r="J27" s="14"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="H27" s="18"/>
+      <c r="J27" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1763,12 +1820,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1782,7 +1839,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -1791,105 +1848,357 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" customFormat="1" spans="1:6">
+      <c r="A2" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" s="4" customFormat="1" spans="1:5">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="8">
+        <v>61</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" customFormat="1" spans="1:6">
+      <c r="A3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="8">
+        <v>62</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" customFormat="1" spans="1:6">
+      <c r="A4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="8">
+        <v>63</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" customFormat="1" spans="1:6">
+      <c r="A5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="8">
+        <v>64</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" customFormat="1" spans="1:6">
+      <c r="A6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="8">
+        <v>65</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" customFormat="1" spans="1:6">
+      <c r="A7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="8">
         <v>66</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" s="4" customFormat="1" spans="1:5">
-      <c r="A3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="C7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" customFormat="1" spans="1:6">
+      <c r="A8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="8">
         <v>67</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" s="4" customFormat="1" spans="1:5">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" s="4" customFormat="1" spans="1:5">
-      <c r="A5" s="7" t="s">
+      <c r="C8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" customFormat="1" spans="1:6">
+      <c r="A9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="8">
         <v>68</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" customFormat="1" spans="1:6">
+      <c r="A10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="8">
         <v>69</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" s="4" customFormat="1" spans="1:5">
-      <c r="A6" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="C10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" customFormat="1" spans="1:6">
+      <c r="A11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="8">
         <v>70</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="C11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" customFormat="1" spans="1:6">
+      <c r="A12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="8">
         <v>71</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" customFormat="1" spans="1:6">
+      <c r="A13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="8">
         <v>72</v>
       </c>
-      <c r="C8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C13" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" customFormat="1" spans="1:6">
+      <c r="A14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="8">
         <v>73</v>
       </c>
-      <c r="C9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" t="s">
-        <v>74</v>
+      <c r="C14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" customFormat="1" spans="1:6">
+      <c r="A15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="8">
+        <v>83</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" customFormat="1" spans="1:6">
+      <c r="A16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="8">
+        <v>84</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" customFormat="1" spans="1:6">
+      <c r="A17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="8">
+        <v>85</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" customFormat="1" spans="1:6">
+      <c r="A18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="8">
+        <v>86</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" customFormat="1" spans="1:6">
+      <c r="A19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="8">
+        <v>87</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" s="4" customFormat="1" spans="1:5">
+      <c r="A20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" s="4" customFormat="1" spans="1:5">
+      <c r="A21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" s="4" customFormat="1" spans="1:5">
+      <c r="A22" s="7"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" s="4" customFormat="1" spans="1:5">
+      <c r="A23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" s="4" customFormat="1" spans="1:5">
+      <c r="A24" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="14"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1904,42 +2213,42 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="46.1259259259259" customWidth="1"/>
-    <col min="2" max="2" width="19.3703703703704" customWidth="1"/>
+    <col min="2" max="2" width="31.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="15.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
